--- a/python/Python_Script/all_policy/Anti-malware.xlsx
+++ b/python/Python_Script/all_policy/Anti-malware.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,86 +464,98 @@
           <t>On</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Customize file types</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>.ace, .apk, .app, .appx, .ani, .arj, .bat, .cab, .cmd, .com and 43 other file types</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>When these file types are found:</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Quarantine the message</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Enable zero-hour auto purge for malware (Recommended)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Notify an admin about undelivered messages from internal senders</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Send notification to admin zee@jeeshanahmad2011outlook.onmicrosoft.com</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Notify an admin about undelivered messages from external senders</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Customize notifications</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Quarantine policy</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>DefaultFullAccessPolicy</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Customize file types</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>.ace, .apk, .app, .appx, .ani, .arj, .bat, .cab, .cmd, .com and 43 other file types</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>When these file types are found:</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Quarantine the message</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>When these file types are found:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Quarantine the message</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Enable zero-hour auto purge for malware (Recommended)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Notify an admin about undelivered messages from internal senders</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Send notification to admin zee@jeeshanahmad2011outlook.onmicrosoft.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Notify an admin about undelivered messages from external senders</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Customize notifications</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Quarantine policy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DefaultFullAccessPolicy</t>
         </is>
       </c>
     </row>
@@ -558,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,52 +589,62 @@
           <t>Off</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Enable zero-hour auto purge for malware (Recommended)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>On</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Notify an admin about undelivered messages from internal senders</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Notify an admin about undelivered messages from external senders</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Customize notifications</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Quarantine policy</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>AdminOnlyAccessPolicy</t>
         </is>
